--- a/template/excel/editorTableData.xlsx
+++ b/template/excel/editorTableData.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="单位" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -17,6 +17,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t xml:space="preserve">uid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试单位</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -92,8 +106,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -114,14 +132,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>114514</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/template/excel/editorTableData.xlsx
+++ b/template/excel/editorTableData.xlsx
@@ -20,15 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">uid</t>
+    <t xml:space="preserve">UID</t>
   </si>
   <si>
     <t xml:space="preserve">名称</t>
   </si>
   <si>
-    <t xml:space="preserve">测试单位</t>
+    <t xml:space="preserve">114514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试单位1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试单位2</t>
   </si>
 </sst>
 </file>
@@ -132,10 +141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -144,16 +153,24 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>114514</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/template/excel/editorTableData.xlsx
+++ b/template/excel/editorTableData.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="单位" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="物品" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t xml:space="preserve">UID</t>
   </si>
@@ -28,7 +29,16 @@
     <t xml:space="preserve">名称</t>
   </si>
   <si>
-    <t xml:space="preserve">114514</t>
+    <t xml:space="preserve">简易普攻.攻击点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114514789</t>
   </si>
   <si>
     <t xml:space="preserve">测试单位1</t>
@@ -38,14 +48,27 @@
   </si>
   <si>
     <t xml:space="preserve">测试单位2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">掉落后时间到期自动消失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">987654321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试物品1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -115,12 +138,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -141,10 +168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -156,21 +183,41 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -182,4 +229,64 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>